--- a/data/pca/factorExposure/factorExposure_2010-01-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-01-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.003680350567629772</v>
+        <v>0.01698379498315771</v>
       </c>
       <c r="C2">
-        <v>0.01325373711424712</v>
+        <v>-0.001208859199185506</v>
       </c>
       <c r="D2">
-        <v>-0.002855001248569816</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.006084530770382327</v>
+      </c>
+      <c r="E2">
+        <v>0.0001894754880874393</v>
+      </c>
+      <c r="F2">
+        <v>-0.01135624856892827</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.03019160637922847</v>
+        <v>0.09392304552335265</v>
       </c>
       <c r="C4">
-        <v>0.1224768144780645</v>
+        <v>-0.0158894361574415</v>
       </c>
       <c r="D4">
-        <v>0.01912678339397873</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.083919023957003</v>
+      </c>
+      <c r="E4">
+        <v>-0.02867742283813484</v>
+      </c>
+      <c r="F4">
+        <v>0.0307934350195911</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.03762261893213856</v>
+        <v>0.1569855330809611</v>
       </c>
       <c r="C6">
-        <v>0.1124469758269632</v>
+        <v>-0.02526028782126061</v>
       </c>
       <c r="D6">
-        <v>-0.04325983282242135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02303427048515542</v>
+      </c>
+      <c r="E6">
+        <v>-0.008948741902964782</v>
+      </c>
+      <c r="F6">
+        <v>0.04639175307586225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.0104092197518961</v>
+        <v>0.06245315157490415</v>
       </c>
       <c r="C7">
-        <v>0.07935922070383838</v>
+        <v>0.0008362664176118269</v>
       </c>
       <c r="D7">
-        <v>-0.001811954105466031</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05133347968110787</v>
+      </c>
+      <c r="E7">
+        <v>-0.009507521538996372</v>
+      </c>
+      <c r="F7">
+        <v>0.04604625691644934</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.002652275704071714</v>
+        <v>0.05718700629891393</v>
       </c>
       <c r="C8">
-        <v>0.05970056039319815</v>
+        <v>0.01331019630436714</v>
       </c>
       <c r="D8">
-        <v>-0.02102352820065808</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.0333917017135628</v>
+      </c>
+      <c r="E8">
+        <v>-0.0175357931385529</v>
+      </c>
+      <c r="F8">
+        <v>-0.02794045544953179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.0253594038536709</v>
+        <v>0.07138171806712995</v>
       </c>
       <c r="C9">
-        <v>0.1014172348555156</v>
+        <v>-0.01164742776513498</v>
       </c>
       <c r="D9">
-        <v>0.02586263853248003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08586467644759889</v>
+      </c>
+      <c r="E9">
+        <v>-0.02293043690435246</v>
+      </c>
+      <c r="F9">
+        <v>0.04730728901201432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.01133375925815507</v>
+        <v>0.09546358639149723</v>
       </c>
       <c r="C10">
-        <v>0.02362775026250836</v>
+        <v>-0.01940091002635351</v>
       </c>
       <c r="D10">
-        <v>-0.1454950165377454</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1704685512601</v>
+      </c>
+      <c r="E10">
+        <v>0.03639370020639492</v>
+      </c>
+      <c r="F10">
+        <v>-0.05296009233805806</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.02946028104021376</v>
+        <v>0.08800666647974426</v>
       </c>
       <c r="C11">
-        <v>0.1083538529576626</v>
+        <v>-0.01122996827813469</v>
       </c>
       <c r="D11">
-        <v>0.03829478568372124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1160042947877712</v>
+      </c>
+      <c r="E11">
+        <v>-0.04603831359442534</v>
+      </c>
+      <c r="F11">
+        <v>0.0212990660675149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.02700460702371835</v>
+        <v>0.0918878646512593</v>
       </c>
       <c r="C12">
-        <v>0.1186438187224943</v>
+        <v>-0.008252621409062888</v>
       </c>
       <c r="D12">
-        <v>0.0357058209834707</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1317918463361461</v>
+      </c>
+      <c r="E12">
+        <v>-0.04709614238993295</v>
+      </c>
+      <c r="F12">
+        <v>0.02542475568461877</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.009197056036185848</v>
+        <v>0.04236692968451775</v>
       </c>
       <c r="C13">
-        <v>0.04111866709327337</v>
+        <v>-0.003584027708189662</v>
       </c>
       <c r="D13">
-        <v>0.02480843489760414</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05130783090560319</v>
+      </c>
+      <c r="E13">
+        <v>0.009843712306519214</v>
+      </c>
+      <c r="F13">
+        <v>0.002133966233787035</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01602568123486874</v>
+        <v>0.02281032072986017</v>
       </c>
       <c r="C14">
-        <v>0.02398395553306646</v>
+        <v>-0.01398029165719678</v>
       </c>
       <c r="D14">
-        <v>-0.003736505445361392</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03339617123323691</v>
+      </c>
+      <c r="E14">
+        <v>-0.01660688475336415</v>
+      </c>
+      <c r="F14">
+        <v>0.01431587846103177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01034404310861058</v>
+        <v>0.03248088840946266</v>
       </c>
       <c r="C15">
-        <v>0.02805574338522124</v>
+        <v>-0.005003722799529688</v>
       </c>
       <c r="D15">
-        <v>0.02002744677697136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04524154873502455</v>
+      </c>
+      <c r="E15">
+        <v>-0.006290836767823677</v>
+      </c>
+      <c r="F15">
+        <v>0.02271594931801464</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.01873016876069793</v>
+        <v>0.07393736422488265</v>
       </c>
       <c r="C16">
-        <v>0.1109287365975099</v>
+        <v>-0.002272110701214539</v>
       </c>
       <c r="D16">
-        <v>0.01555464965982468</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1259023583068528</v>
+      </c>
+      <c r="E16">
+        <v>-0.06111256751515018</v>
+      </c>
+      <c r="F16">
+        <v>0.02434611653455692</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03158377137639851</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003420752544598842</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01985340207866722</v>
+      </c>
+      <c r="E18">
+        <v>0.006678600784835015</v>
+      </c>
+      <c r="F18">
+        <v>-0.003407838968841051</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.01187658825179406</v>
+        <v>0.06092484375740499</v>
       </c>
       <c r="C20">
-        <v>0.06793602591543758</v>
+        <v>-0.0006914678530513335</v>
       </c>
       <c r="D20">
-        <v>0.003937465417323378</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07684455946547167</v>
+      </c>
+      <c r="E20">
+        <v>-0.05528838023822859</v>
+      </c>
+      <c r="F20">
+        <v>0.02288468910733983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.01255016728489053</v>
+        <v>0.04015572997676675</v>
       </c>
       <c r="C21">
-        <v>0.02253494961273303</v>
+        <v>-0.006685807176393529</v>
       </c>
       <c r="D21">
-        <v>-0.0009971626970615235</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03662682545142506</v>
+      </c>
+      <c r="E21">
+        <v>0.006344443921181683</v>
+      </c>
+      <c r="F21">
+        <v>-0.02422567269289154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.004654412087308379</v>
+        <v>0.04391450083199003</v>
       </c>
       <c r="C22">
-        <v>0.02971434493078356</v>
+        <v>-0.001229004783911767</v>
       </c>
       <c r="D22">
-        <v>-0.03856801724279162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.002618037818707388</v>
+      </c>
+      <c r="E22">
+        <v>-0.02896404713398389</v>
+      </c>
+      <c r="F22">
+        <v>-0.03307592043505775</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.004642207449189193</v>
+        <v>0.04389996952952301</v>
       </c>
       <c r="C23">
-        <v>0.02964438166632638</v>
+        <v>-0.001224710542381728</v>
       </c>
       <c r="D23">
-        <v>-0.03862902096126835</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.002623170060783578</v>
+      </c>
+      <c r="E23">
+        <v>-0.02916567818729167</v>
+      </c>
+      <c r="F23">
+        <v>-0.0330386215240248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.01898472783635459</v>
+        <v>0.08051433059135893</v>
       </c>
       <c r="C24">
-        <v>0.1145901378474928</v>
+        <v>-0.002832840232709634</v>
       </c>
       <c r="D24">
-        <v>0.02511411655789938</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.120079127315021</v>
+      </c>
+      <c r="E24">
+        <v>-0.0493812182539649</v>
+      </c>
+      <c r="F24">
+        <v>0.0252975724193428</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.02442761915196782</v>
+        <v>0.08516163528743133</v>
       </c>
       <c r="C25">
-        <v>0.1194557922145044</v>
+        <v>-0.004999549328735022</v>
       </c>
       <c r="D25">
-        <v>0.02219461825893368</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1088275512770538</v>
+      </c>
+      <c r="E25">
+        <v>-0.03227292347576178</v>
+      </c>
+      <c r="F25">
+        <v>0.02595691714300342</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.02363006196014186</v>
+        <v>0.05755902221179687</v>
       </c>
       <c r="C26">
-        <v>0.050741282083428</v>
+        <v>-0.01473602170174461</v>
       </c>
       <c r="D26">
-        <v>-0.01887076294670666</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04019285534634977</v>
+      </c>
+      <c r="E26">
+        <v>-0.02720605005696265</v>
+      </c>
+      <c r="F26">
+        <v>-0.01001398742509219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.004041911074608601</v>
+        <v>0.1405626674947528</v>
       </c>
       <c r="C28">
-        <v>0.02234632026859518</v>
+        <v>-0.01882115890406183</v>
       </c>
       <c r="D28">
-        <v>-0.1995720572523411</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2638500029423345</v>
+      </c>
+      <c r="E28">
+        <v>0.06826803060574559</v>
+      </c>
+      <c r="F28">
+        <v>0.008796837194031987</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.01294286123944175</v>
+        <v>0.02755486214556357</v>
       </c>
       <c r="C29">
-        <v>0.02855996526293415</v>
+        <v>-0.008166902954619762</v>
       </c>
       <c r="D29">
-        <v>-0.01275597622945949</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03278994003136668</v>
+      </c>
+      <c r="E29">
+        <v>-0.01118000833744074</v>
+      </c>
+      <c r="F29">
+        <v>-0.01020796031423437</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.01593041683216643</v>
+        <v>0.0624644278862698</v>
       </c>
       <c r="C30">
-        <v>0.1258614987292317</v>
+        <v>-0.004269349382099501</v>
       </c>
       <c r="D30">
-        <v>0.0224208593213198</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.0864906314191657</v>
+      </c>
+      <c r="E30">
+        <v>-0.0199467760267215</v>
+      </c>
+      <c r="F30">
+        <v>0.08219259633447926</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.0217260554688151</v>
+        <v>0.0499295337626955</v>
       </c>
       <c r="C31">
-        <v>0.03664190741003647</v>
+        <v>-0.01531142807415584</v>
       </c>
       <c r="D31">
-        <v>-0.001828587393439477</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02490853088906887</v>
+      </c>
+      <c r="E31">
+        <v>-0.02735225100735286</v>
+      </c>
+      <c r="F31">
+        <v>-0.002653228193161224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.007204767303246564</v>
+        <v>0.04992524568069735</v>
       </c>
       <c r="C32">
-        <v>0.06027722294733993</v>
+        <v>0.00128374259412914</v>
       </c>
       <c r="D32">
-        <v>-0.02832424838530111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03596998479203588</v>
+      </c>
+      <c r="E32">
+        <v>-0.03044465860813075</v>
+      </c>
+      <c r="F32">
+        <v>0.002110030523441492</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.02279440879728797</v>
+        <v>0.08977656949743185</v>
       </c>
       <c r="C33">
-        <v>0.1147238330229344</v>
+        <v>-0.008405129489961714</v>
       </c>
       <c r="D33">
-        <v>0.01940531064840996</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.09827349888040071</v>
+      </c>
+      <c r="E33">
+        <v>-0.04429555654365008</v>
+      </c>
+      <c r="F33">
+        <v>0.03529181820451534</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.02607787821203799</v>
+        <v>0.0685476253575573</v>
       </c>
       <c r="C34">
-        <v>0.0965359736722986</v>
+        <v>-0.0113890753530741</v>
       </c>
       <c r="D34">
-        <v>0.01827747220226895</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1065029653921255</v>
+      </c>
+      <c r="E34">
+        <v>-0.03442735554994507</v>
+      </c>
+      <c r="F34">
+        <v>0.03334812878846317</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.003806741165841685</v>
+        <v>0.02368658725387525</v>
       </c>
       <c r="C35">
-        <v>0.0160573855239173</v>
+        <v>-0.002400080522168507</v>
       </c>
       <c r="D35">
-        <v>0.005883546049467444</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01225054884716822</v>
+      </c>
+      <c r="E35">
+        <v>-0.01130753086917332</v>
+      </c>
+      <c r="F35">
+        <v>0.001097612061098619</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01080533424354115</v>
+        <v>0.0273633500303861</v>
       </c>
       <c r="C36">
-        <v>0.0291894842752106</v>
+        <v>-0.007174066926017772</v>
       </c>
       <c r="D36">
-        <v>0.0117509086986547</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03982198827410813</v>
+      </c>
+      <c r="E36">
+        <v>-0.01549369576729796</v>
+      </c>
+      <c r="F36">
+        <v>0.01538464287508936</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0004586638740885136</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>8.046254119023912e-05</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.0004416995097992902</v>
+      </c>
+      <c r="E37">
+        <v>0.0001570637300505222</v>
+      </c>
+      <c r="F37">
+        <v>0.0006932825628322107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0005451451320150865</v>
+        <v>0.001220659370129537</v>
       </c>
       <c r="C38">
-        <v>0.003815440978667226</v>
+        <v>-0.0001728330989769466</v>
       </c>
       <c r="D38">
-        <v>-0.001403708681848334</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.000791322753651305</v>
+      </c>
+      <c r="E38">
+        <v>-0.000947466074763044</v>
+      </c>
+      <c r="F38">
+        <v>-0.0007589784567659149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.0422315109320713</v>
+        <v>0.1059969493527104</v>
       </c>
       <c r="C39">
-        <v>0.1753274077880493</v>
+        <v>-0.01674206787602836</v>
       </c>
       <c r="D39">
-        <v>0.04822238864534004</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1536296491813923</v>
+      </c>
+      <c r="E39">
+        <v>-0.05891296585274441</v>
+      </c>
+      <c r="F39">
+        <v>0.02768579627956311</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.01117451331379213</v>
+        <v>0.04131829574809356</v>
       </c>
       <c r="C40">
-        <v>0.01419638870893981</v>
+        <v>-0.007280596703067507</v>
       </c>
       <c r="D40">
-        <v>-0.01120589406196202</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03148036042969948</v>
+      </c>
+      <c r="E40">
+        <v>-0.003078619683965169</v>
+      </c>
+      <c r="F40">
+        <v>-0.01564103706425961</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01124045201378091</v>
+        <v>0.02752829953022692</v>
       </c>
       <c r="C41">
-        <v>0.02102153083240553</v>
+        <v>-0.006589696093937193</v>
       </c>
       <c r="D41">
-        <v>-0.01709825686211923</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01090500711627291</v>
+      </c>
+      <c r="E41">
+        <v>-0.01245623920582854</v>
+      </c>
+      <c r="F41">
+        <v>-0.006437701512669021</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.01320086429636421</v>
+        <v>0.04060539659096658</v>
       </c>
       <c r="C43">
-        <v>0.02808429747902791</v>
+        <v>-0.006772611112084635</v>
       </c>
       <c r="D43">
-        <v>-0.009803091531745352</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02075503094557628</v>
+      </c>
+      <c r="E43">
+        <v>-0.02513669090953491</v>
+      </c>
+      <c r="F43">
+        <v>-0.01239364967199257</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.0314034474728123</v>
+        <v>0.07972859966734669</v>
       </c>
       <c r="C44">
-        <v>0.1316046138541821</v>
+        <v>-0.02051642112194906</v>
       </c>
       <c r="D44">
-        <v>0.005306125295102624</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09923268815828022</v>
+      </c>
+      <c r="E44">
+        <v>-0.06563383239655667</v>
+      </c>
+      <c r="F44">
+        <v>0.1557907435594653</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.005472611670888325</v>
+        <v>0.02335748068751864</v>
       </c>
       <c r="C46">
-        <v>0.004580680850443744</v>
+        <v>-0.00371268530324523</v>
       </c>
       <c r="D46">
-        <v>-0.01764388139639518</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01341053165566321</v>
+      </c>
+      <c r="E46">
+        <v>-0.021806952546408</v>
+      </c>
+      <c r="F46">
+        <v>-0.004180215351879754</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.01019265521887489</v>
+        <v>0.05093891815355477</v>
       </c>
       <c r="C47">
-        <v>0.03316256248674532</v>
+        <v>-0.003570664404689492</v>
       </c>
       <c r="D47">
-        <v>-0.02759625177404014</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01401859846422388</v>
+      </c>
+      <c r="E47">
+        <v>-0.02352173260983158</v>
+      </c>
+      <c r="F47">
+        <v>-0.03303196231451278</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.0118412857093518</v>
+        <v>0.04930828766841535</v>
       </c>
       <c r="C48">
-        <v>0.05079077716847244</v>
+        <v>-0.00261790350507839</v>
       </c>
       <c r="D48">
-        <v>0.0112375075437515</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05032483039466399</v>
+      </c>
+      <c r="E48">
+        <v>0.007019262804744574</v>
+      </c>
+      <c r="F48">
+        <v>0.009232360619049454</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.03721791737769693</v>
+        <v>0.1995159853717098</v>
       </c>
       <c r="C49">
-        <v>0.2011458115277167</v>
+        <v>-0.0187958389447389</v>
       </c>
       <c r="D49">
-        <v>-0.06734493311254612</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.008652966809234495</v>
+      </c>
+      <c r="E49">
+        <v>-0.03110780115709657</v>
+      </c>
+      <c r="F49">
+        <v>0.03873751260464497</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.01837053257311646</v>
+        <v>0.05056776135079473</v>
       </c>
       <c r="C50">
-        <v>0.04112807876671738</v>
+        <v>-0.01129704633950705</v>
       </c>
       <c r="D50">
-        <v>-0.01022408219834018</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02340131174099248</v>
+      </c>
+      <c r="E50">
+        <v>-0.02925124222422864</v>
+      </c>
+      <c r="F50">
+        <v>0.00835614433866114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0004546704539649103</v>
+        <v>0.0009436541500831073</v>
       </c>
       <c r="C51">
-        <v>0.002465962522665363</v>
+        <v>-0.0002692192173300095</v>
       </c>
       <c r="D51">
-        <v>-0.003543146116863779</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.000728088436462733</v>
+      </c>
+      <c r="E51">
+        <v>-5.443290614516203e-05</v>
+      </c>
+      <c r="F51">
+        <v>0.00281790995134293</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.03012602476349619</v>
+        <v>0.1458909131506965</v>
       </c>
       <c r="C52">
-        <v>0.1502792577776606</v>
+        <v>-0.01547326631014316</v>
       </c>
       <c r="D52">
-        <v>0.01958548290802322</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04600165156124194</v>
+      </c>
+      <c r="E52">
+        <v>-0.02044304820567079</v>
+      </c>
+      <c r="F52">
+        <v>0.04100812765434521</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.03135805945119394</v>
+        <v>0.1724675012199887</v>
       </c>
       <c r="C53">
-        <v>0.1703869388757747</v>
+        <v>-0.01873330682544938</v>
       </c>
       <c r="D53">
-        <v>-0.01733424750542065</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.00551537278639922</v>
+      </c>
+      <c r="E53">
+        <v>-0.031242487631081</v>
+      </c>
+      <c r="F53">
+        <v>0.07262038638637261</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01549893424740652</v>
+        <v>0.02199228848759991</v>
       </c>
       <c r="C54">
-        <v>0.04331080128352972</v>
+        <v>-0.01265119014676709</v>
       </c>
       <c r="D54">
-        <v>-0.01161108429195959</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03419973459335579</v>
+      </c>
+      <c r="E54">
+        <v>-0.01746983757305344</v>
+      </c>
+      <c r="F54">
+        <v>-0.003071774050874626</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.02418425827207164</v>
+        <v>0.1139483591885039</v>
       </c>
       <c r="C55">
-        <v>0.08647301236509169</v>
+        <v>-0.01649723145249549</v>
       </c>
       <c r="D55">
-        <v>0.003266032877500877</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.009262976568774596</v>
+      </c>
+      <c r="E55">
+        <v>-0.02773045337242775</v>
+      </c>
+      <c r="F55">
+        <v>0.04695223164575913</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.03224144443414263</v>
+        <v>0.1770440608690634</v>
       </c>
       <c r="C56">
-        <v>0.1582270101535361</v>
+        <v>-0.01604983794878263</v>
       </c>
       <c r="D56">
-        <v>-0.02875861724543735</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.001338141549306854</v>
+      </c>
+      <c r="E56">
+        <v>-0.03616398516095076</v>
+      </c>
+      <c r="F56">
+        <v>0.05131029724074779</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.01272270619604385</v>
+        <v>0.04696684769425216</v>
       </c>
       <c r="C58">
-        <v>0.05077063204281817</v>
+        <v>-0.001092435666187746</v>
       </c>
       <c r="D58">
-        <v>0.0004728403464419821</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.06698709050020968</v>
+      </c>
+      <c r="E58">
+        <v>-0.02736627389710527</v>
+      </c>
+      <c r="F58">
+        <v>-0.03618172682435995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.01190086032660334</v>
+        <v>0.1675037663883428</v>
       </c>
       <c r="C59">
-        <v>0.07693140581934961</v>
+        <v>-0.01961966076271883</v>
       </c>
       <c r="D59">
-        <v>-0.2173320342665732</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2192250649631836</v>
+      </c>
+      <c r="E59">
+        <v>0.0440741595932465</v>
+      </c>
+      <c r="F59">
+        <v>-0.03544529235397038</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.02526769927653545</v>
+        <v>0.2315292059198163</v>
       </c>
       <c r="C60">
-        <v>0.2731822249220944</v>
+        <v>0.002430928649551303</v>
       </c>
       <c r="D60">
-        <v>-0.008809765376192619</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.0414287982830432</v>
+      </c>
+      <c r="E60">
+        <v>-0.01148774851763677</v>
+      </c>
+      <c r="F60">
+        <v>-0.006477905058610388</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.02961199592206445</v>
+        <v>0.08263595986387741</v>
       </c>
       <c r="C61">
-        <v>0.1291635316487756</v>
+        <v>-0.01272077084154966</v>
       </c>
       <c r="D61">
-        <v>0.01919078273548097</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1154440729448838</v>
+      </c>
+      <c r="E61">
+        <v>-0.0382097506506751</v>
+      </c>
+      <c r="F61">
+        <v>0.01107700421562512</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.03421913975311336</v>
+        <v>0.1703859273345659</v>
       </c>
       <c r="C62">
-        <v>0.1626801615713854</v>
+        <v>-0.01943566293304344</v>
       </c>
       <c r="D62">
-        <v>-0.02485557721327107</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.007370963373450607</v>
+      </c>
+      <c r="E62">
+        <v>-0.03523953497505879</v>
+      </c>
+      <c r="F62">
+        <v>0.03482184906459091</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01190087158268063</v>
+        <v>0.04513599167120022</v>
       </c>
       <c r="C63">
-        <v>0.05603161083720908</v>
+        <v>-0.002494827156588063</v>
       </c>
       <c r="D63">
-        <v>0.006130724298976558</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05769493727314021</v>
+      </c>
+      <c r="E63">
+        <v>-0.02023730540162647</v>
+      </c>
+      <c r="F63">
+        <v>0.005600549655920026</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.02307972732751106</v>
+        <v>0.1105141588627201</v>
       </c>
       <c r="C64">
-        <v>0.09959622584502228</v>
+        <v>-0.01178535916538377</v>
       </c>
       <c r="D64">
-        <v>-0.0009845765283038618</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.041883753479051</v>
+      </c>
+      <c r="E64">
+        <v>-0.02263918941697944</v>
+      </c>
+      <c r="F64">
+        <v>0.02613124372525859</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.03808117492958068</v>
+        <v>0.1476533212837174</v>
       </c>
       <c r="C65">
-        <v>0.1077306077149326</v>
+        <v>-0.03223012920428576</v>
       </c>
       <c r="D65">
-        <v>-0.0281846974664299</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04227655014615476</v>
+      </c>
+      <c r="E65">
+        <v>-0.00288542037219375</v>
+      </c>
+      <c r="F65">
+        <v>0.04026876508386606</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.0408329283659871</v>
+        <v>0.1257569727975452</v>
       </c>
       <c r="C66">
-        <v>0.2024780889285179</v>
+        <v>-0.01486526047409388</v>
       </c>
       <c r="D66">
-        <v>0.02988648363160596</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1418283530590446</v>
+      </c>
+      <c r="E66">
+        <v>-0.06665125418847506</v>
+      </c>
+      <c r="F66">
+        <v>0.03025137548136352</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.01486119464535641</v>
+        <v>0.0608835931757445</v>
       </c>
       <c r="C67">
-        <v>0.06405720577409256</v>
+        <v>-0.003299727612370038</v>
       </c>
       <c r="D67">
-        <v>-0.002906414729617106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05618771768239805</v>
+      </c>
+      <c r="E67">
+        <v>-0.01785754109545781</v>
+      </c>
+      <c r="F67">
+        <v>-0.03348238955944119</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.01475358700788851</v>
+        <v>0.1161111342696959</v>
       </c>
       <c r="C68">
-        <v>0.01821335039952295</v>
+        <v>-0.02892701437592981</v>
       </c>
       <c r="D68">
-        <v>-0.1910411206183113</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2600746039057715</v>
+      </c>
+      <c r="E68">
+        <v>0.08638863585911918</v>
+      </c>
+      <c r="F68">
+        <v>0.005201216844502554</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.005670549769404733</v>
+        <v>0.03952203359998101</v>
       </c>
       <c r="C69">
-        <v>0.03176111560554869</v>
+        <v>-0.001314695538734924</v>
       </c>
       <c r="D69">
-        <v>-0.0107782589208078</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007465359551231996</v>
+      </c>
+      <c r="E69">
+        <v>-0.02342587204928422</v>
+      </c>
+      <c r="F69">
+        <v>-0.001175083493379596</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.001320909026415071</v>
+        <v>0.0654306468183586</v>
       </c>
       <c r="C70">
-        <v>0.03216453067712179</v>
+        <v>0.02792144591967999</v>
       </c>
       <c r="D70">
-        <v>-0.007223652227271402</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02585145886265734</v>
+      </c>
+      <c r="E70">
+        <v>0.04082839413314256</v>
+      </c>
+      <c r="F70">
+        <v>-0.1861105069369579</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.01859832567428724</v>
+        <v>0.1361598587895022</v>
       </c>
       <c r="C71">
-        <v>0.02305832410530764</v>
+        <v>-0.03389635404596694</v>
       </c>
       <c r="D71">
-        <v>-0.1992222872728094</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2743659143001326</v>
+      </c>
+      <c r="E71">
+        <v>0.09642240477548485</v>
+      </c>
+      <c r="F71">
+        <v>0.01214964036727861</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.03576926214090411</v>
+        <v>0.1418433497781036</v>
       </c>
       <c r="C72">
-        <v>0.1158296246882987</v>
+        <v>-0.02592668693750055</v>
       </c>
       <c r="D72">
-        <v>-0.03890183671388509</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.001132456007003419</v>
+      </c>
+      <c r="E72">
+        <v>-0.03875066689838502</v>
+      </c>
+      <c r="F72">
+        <v>0.03542132320916421</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.03363485894487699</v>
+        <v>0.2011971692240414</v>
       </c>
       <c r="C73">
-        <v>0.2016745179120175</v>
+        <v>-0.01284810526912431</v>
       </c>
       <c r="D73">
-        <v>-0.06648400914132764</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01645693657777956</v>
+      </c>
+      <c r="E73">
+        <v>-0.06495322586053461</v>
+      </c>
+      <c r="F73">
+        <v>0.03838765919197367</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.01957781987316734</v>
+        <v>0.09488315331837779</v>
       </c>
       <c r="C74">
-        <v>0.1104651174444653</v>
+        <v>-0.0132163494318135</v>
       </c>
       <c r="D74">
-        <v>-0.02499868668633406</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01786942458907338</v>
+      </c>
+      <c r="E74">
+        <v>-0.04430929473312628</v>
+      </c>
+      <c r="F74">
+        <v>0.0563881133889819</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.0410186905021596</v>
+        <v>0.1285104654350016</v>
       </c>
       <c r="C75">
-        <v>0.1308306398134142</v>
+        <v>-0.02770676071388088</v>
       </c>
       <c r="D75">
-        <v>-0.03160094680388961</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03034766637123143</v>
+      </c>
+      <c r="E75">
+        <v>-0.05874792413221198</v>
+      </c>
+      <c r="F75">
+        <v>0.01802467282119794</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0004464604382339926</v>
+        <v>0.001118164880679366</v>
       </c>
       <c r="C76">
-        <v>0.003415947121107737</v>
+        <v>-0.0003100787334738968</v>
       </c>
       <c r="D76">
-        <v>-0.004702357666766446</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0009264097033970442</v>
+      </c>
+      <c r="E76">
+        <v>-0.0001203422735417527</v>
+      </c>
+      <c r="F76">
+        <v>0.001269352457737191</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.0247359813031196</v>
+        <v>0.08398679952773709</v>
       </c>
       <c r="C77">
-        <v>0.1035546006143005</v>
+        <v>-0.00859518706351994</v>
       </c>
       <c r="D77">
-        <v>0.0499595070034272</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1134182890139956</v>
+      </c>
+      <c r="E77">
+        <v>-0.03720302537345914</v>
+      </c>
+      <c r="F77">
+        <v>0.02976921769018366</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.05419536368875685</v>
+        <v>0.1006365145978273</v>
       </c>
       <c r="C78">
-        <v>0.1338167946077237</v>
+        <v>-0.03962574210646756</v>
       </c>
       <c r="D78">
-        <v>-0.003722550049102045</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1162116644546961</v>
+      </c>
+      <c r="E78">
+        <v>-0.07675402546386484</v>
+      </c>
+      <c r="F78">
+        <v>0.04452619320210843</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.0359087828056334</v>
+        <v>0.1644397700390718</v>
       </c>
       <c r="C79">
-        <v>0.142952371093822</v>
+        <v>-0.02222124199311627</v>
       </c>
       <c r="D79">
-        <v>-0.0344199768659296</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01586516439026664</v>
+      </c>
+      <c r="E79">
+        <v>-0.04684687699883563</v>
+      </c>
+      <c r="F79">
+        <v>0.01107481520244929</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.008215206144198288</v>
+        <v>0.08246920358210993</v>
       </c>
       <c r="C80">
-        <v>0.08463227807835015</v>
+        <v>0.0005397656490868533</v>
       </c>
       <c r="D80">
-        <v>-0.00521312398372064</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05718117307596432</v>
+      </c>
+      <c r="E80">
+        <v>-0.03649634677621884</v>
+      </c>
+      <c r="F80">
+        <v>-0.02444923919752979</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.04272295286281794</v>
+        <v>0.1221189784010294</v>
       </c>
       <c r="C81">
-        <v>0.1428186544431802</v>
+        <v>-0.03152380630684481</v>
       </c>
       <c r="D81">
-        <v>-0.01731059936193615</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01571247376317736</v>
+      </c>
+      <c r="E81">
+        <v>-0.05884247071543164</v>
+      </c>
+      <c r="F81">
+        <v>0.01672706808228839</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.03708323288497588</v>
+        <v>0.1663887889640296</v>
       </c>
       <c r="C82">
-        <v>0.1629488344304838</v>
+        <v>-0.02400451604707233</v>
       </c>
       <c r="D82">
-        <v>-0.02819040134228051</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.003872410421782326</v>
+      </c>
+      <c r="E82">
+        <v>-0.02852156203204572</v>
+      </c>
+      <c r="F82">
+        <v>0.07995492483349606</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.0180710188309607</v>
+        <v>0.06102389054682306</v>
       </c>
       <c r="C83">
-        <v>0.06855453708982917</v>
+        <v>-0.003317276951549807</v>
       </c>
       <c r="D83">
-        <v>-0.005260594533861239</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.0497710683310084</v>
+      </c>
+      <c r="E83">
+        <v>-0.005668368896079852</v>
+      </c>
+      <c r="F83">
+        <v>-0.0319720153492003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.02620770010740225</v>
+        <v>0.05788864347906358</v>
       </c>
       <c r="C84">
-        <v>0.07719096972287047</v>
+        <v>-0.01105676984306739</v>
       </c>
       <c r="D84">
-        <v>0.01341348417996465</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06557006930061429</v>
+      </c>
+      <c r="E84">
+        <v>-0.007589776911457677</v>
+      </c>
+      <c r="F84">
+        <v>0.003770710504261548</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.03739378493724269</v>
+        <v>0.1368006583321897</v>
       </c>
       <c r="C85">
-        <v>0.1202438947718012</v>
+        <v>-0.02756503823617213</v>
       </c>
       <c r="D85">
-        <v>-0.0198159046235334</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01136560992925797</v>
+      </c>
+      <c r="E85">
+        <v>-0.03907202182475483</v>
+      </c>
+      <c r="F85">
+        <v>0.04564932050064345</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.007931760804153082</v>
+        <v>0.09364267461673725</v>
       </c>
       <c r="C86">
-        <v>0.08900624075304317</v>
+        <v>0.006346016590365564</v>
       </c>
       <c r="D86">
-        <v>-0.2692630736008518</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04176623762231504</v>
+      </c>
+      <c r="E86">
+        <v>-0.211550722679584</v>
+      </c>
+      <c r="F86">
+        <v>-0.9089136008940708</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.03849470026028617</v>
+        <v>0.09693172975092582</v>
       </c>
       <c r="C87">
-        <v>0.1072195722864692</v>
+        <v>-0.0205068982537523</v>
       </c>
       <c r="D87">
-        <v>0.05420423124890954</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.0950724852638181</v>
+      </c>
+      <c r="E87">
+        <v>0.05235077062910128</v>
+      </c>
+      <c r="F87">
+        <v>0.05345093473044409</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.01291042532190106</v>
+        <v>0.06064341150313578</v>
       </c>
       <c r="C88">
-        <v>0.05890756316994826</v>
+        <v>-0.002455206536701886</v>
       </c>
       <c r="D88">
-        <v>0.01060410374304039</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.05026188277913755</v>
+      </c>
+      <c r="E88">
+        <v>-0.02494141215275634</v>
+      </c>
+      <c r="F88">
+        <v>0.01214901296068358</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.0002288463761094761</v>
+        <v>0.1339360087593653</v>
       </c>
       <c r="C89">
-        <v>0.04197125772244677</v>
+        <v>-0.01159696471759834</v>
       </c>
       <c r="D89">
-        <v>-0.2495223517565235</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.252411701675603</v>
+      </c>
+      <c r="E89">
+        <v>0.09038105806684775</v>
+      </c>
+      <c r="F89">
+        <v>-0.008774719087384655</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.01727380824177947</v>
+        <v>0.1494220226842553</v>
       </c>
       <c r="C90">
-        <v>0.02275629463177698</v>
+        <v>-0.02972830291011427</v>
       </c>
       <c r="D90">
-        <v>-0.2102962163982282</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2685459209102689</v>
+      </c>
+      <c r="E90">
+        <v>0.1109637421489616</v>
+      </c>
+      <c r="F90">
+        <v>-0.002298062931183218</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.02294119206530743</v>
+        <v>0.1203476024076615</v>
       </c>
       <c r="C91">
-        <v>0.09595771190120976</v>
+        <v>-0.01850350511564139</v>
       </c>
       <c r="D91">
-        <v>-0.02456417288231488</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01334476578523154</v>
+      </c>
+      <c r="E91">
+        <v>-0.05690017341048433</v>
+      </c>
+      <c r="F91">
+        <v>-0.002618651466596664</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.001699000617737443</v>
+        <v>0.1469912202171345</v>
       </c>
       <c r="C92">
-        <v>0.03692902242153642</v>
+        <v>-0.02178684182157889</v>
       </c>
       <c r="D92">
-        <v>-0.2259277038619087</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2919269831301016</v>
+      </c>
+      <c r="E92">
+        <v>0.1007851034688356</v>
+      </c>
+      <c r="F92">
+        <v>-0.01446168759494713</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.01382094153953081</v>
+        <v>0.1511359231360595</v>
       </c>
       <c r="C93">
-        <v>0.03336305376650308</v>
+        <v>-0.02562078280251064</v>
       </c>
       <c r="D93">
-        <v>-0.2273604531824777</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2678087858209112</v>
+      </c>
+      <c r="E93">
+        <v>0.07751824000848659</v>
+      </c>
+      <c r="F93">
+        <v>0.002993658838239061</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.04085273972688314</v>
+        <v>0.1315220578875872</v>
       </c>
       <c r="C94">
-        <v>0.153902009278712</v>
+        <v>-0.0246320149502814</v>
       </c>
       <c r="D94">
-        <v>-0.03017098612345634</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.0428093513656199</v>
+      </c>
+      <c r="E94">
+        <v>-0.05800968861337397</v>
+      </c>
+      <c r="F94">
+        <v>0.03651075666377769</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.02516870668295973</v>
+        <v>0.1276072057854062</v>
       </c>
       <c r="C95">
-        <v>0.1482368961499727</v>
+        <v>-0.004536014518102731</v>
       </c>
       <c r="D95">
-        <v>0.01416289497188029</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09150358789826983</v>
+      </c>
+      <c r="E95">
+        <v>-0.04645281375206912</v>
+      </c>
+      <c r="F95">
+        <v>-0.007521187676613537</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.976076187011336</v>
+        <v>0.1054121056236888</v>
       </c>
       <c r="C96">
-        <v>0.1976440947188651</v>
+        <v>0.9879386605172165</v>
       </c>
       <c r="D96">
-        <v>-0.02367328673433755</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.04081475799898786</v>
+      </c>
+      <c r="E96">
+        <v>-0.05605825689732505</v>
+      </c>
+      <c r="F96">
+        <v>0.04247361004570584</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.004282121518057275</v>
+        <v>0.193323067848664</v>
       </c>
       <c r="C97">
-        <v>0.1600512409850122</v>
+        <v>0.007975513970195114</v>
       </c>
       <c r="D97">
-        <v>-0.1150565477510027</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0161738720778213</v>
+      </c>
+      <c r="E97">
+        <v>-0.01874186516504937</v>
+      </c>
+      <c r="F97">
+        <v>-0.08954654338457599</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.02562577298324948</v>
+        <v>0.2050653886949984</v>
       </c>
       <c r="C98">
-        <v>0.1956640873034189</v>
+        <v>-0.007654830206208388</v>
       </c>
       <c r="D98">
-        <v>-0.04728903121833897</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.009447359810514481</v>
+      </c>
+      <c r="E98">
+        <v>0.08434576942936625</v>
+      </c>
+      <c r="F98">
+        <v>-0.09595001610312603</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.003639792288015812</v>
+        <v>0.05589269992952814</v>
       </c>
       <c r="C99">
-        <v>0.0537223594017362</v>
+        <v>0.004421773243449743</v>
       </c>
       <c r="D99">
-        <v>-0.009888140833845503</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03917457435388327</v>
+      </c>
+      <c r="E99">
+        <v>-0.02336880889851879</v>
+      </c>
+      <c r="F99">
+        <v>0.001066155054035182</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.008391153118643267</v>
+        <v>0.1261805096448663</v>
       </c>
       <c r="C100">
-        <v>0.2156574746139779</v>
+        <v>0.05283710845286638</v>
       </c>
       <c r="D100">
-        <v>0.6872112845233468</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.344068570927983</v>
+      </c>
+      <c r="E100">
+        <v>0.8893095864534165</v>
+      </c>
+      <c r="F100">
+        <v>-0.1391347908569798</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.0129583291253328</v>
+        <v>0.02747486918215025</v>
       </c>
       <c r="C101">
-        <v>0.02857656604969372</v>
+        <v>-0.008175472377329926</v>
       </c>
       <c r="D101">
-        <v>-0.01257277086619431</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03249667984579575</v>
+      </c>
+      <c r="E101">
+        <v>-0.0106277713854097</v>
+      </c>
+      <c r="F101">
+        <v>-0.01148937222066582</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
